--- a/file/1.xlsx
+++ b/file/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
@@ -10,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>x1</t>
   </si>
@@ -69,15 +69,18 @@
   <si>
     <t>Բարձր իրացվելի ակտիվների հարաբերությունը ցպահանջ պարտավորություններին</t>
   </si>
+  <si>
+    <t>b0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,6 +144,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -148,7 +160,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +182,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,7 +238,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -244,7 +258,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -289,7 +303,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -309,7 +323,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -354,7 +368,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -374,7 +388,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -419,7 +433,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -439,7 +453,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -484,7 +498,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -504,7 +518,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -549,7 +563,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -569,7 +583,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -614,7 +628,7 @@
           </a:clrChange>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -634,7 +648,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -910,21 +924,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -976,7 +990,7 @@
         <v>221.93</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>163.27000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1028,7 +1042,7 @@
         <v>253.95</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -1054,7 +1068,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1080,7 +1094,7 @@
         <v>169.66</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>206.51</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1132,7 +1146,7 @@
         <v>361.34</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1158,7 +1172,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1184,7 +1198,7 @@
         <v>257.52999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -1210,7 +1224,7 @@
         <v>332.89</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0</v>
       </c>
@@ -1236,7 +1250,7 @@
         <v>327.89</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1262,7 +1276,7 @@
         <v>114.54</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1288,7 +1302,7 @@
         <v>300.89</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>98.67</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1340,7 +1354,7 @@
         <v>76.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1366,7 +1380,7 @@
         <v>103.79</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1392,7 +1406,7 @@
         <v>134.63999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>296.11</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>0</v>
       </c>
@@ -1444,7 +1458,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1470,7 +1484,7 @@
         <v>150.30000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1496,7 +1510,7 @@
         <v>113.12</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1522,7 +1536,7 @@
         <v>204.7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1548,7 +1562,7 @@
         <v>130.85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>280.55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>0</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>124.29</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>194.18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1652,7 +1666,7 @@
         <v>215.85</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1678,7 +1692,7 @@
         <v>428.87</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1704,7 +1718,7 @@
         <v>124.29</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -1730,7 +1744,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>0</v>
       </c>
@@ -1756,7 +1770,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>0</v>
       </c>
@@ -1782,7 +1796,7 @@
         <v>327.89</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -1808,7 +1822,7 @@
         <v>114.54</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -1834,7 +1848,7 @@
         <v>221.86</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>100.71</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>87.15</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -1912,7 +1926,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>218.84</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -1964,7 +1978,7 @@
         <v>316.64</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>0</v>
       </c>
@@ -1990,7 +2004,7 @@
         <v>134.44999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>100.95</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -2042,7 +2056,7 @@
         <v>221.15</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -2068,7 +2082,7 @@
         <v>93.35</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -2094,7 +2108,7 @@
         <v>360.78</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -2120,7 +2134,7 @@
         <v>210.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -2146,7 +2160,7 @@
         <v>176.44</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -2172,7 +2186,7 @@
         <v>494.25</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>141.06</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -2224,7 +2238,7 @@
         <v>708.85</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -2250,7 +2264,7 @@
         <v>114.54</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1</v>
       </c>
@@ -2276,7 +2290,7 @@
         <v>190.83</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -2302,7 +2316,7 @@
         <v>116.23</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -2328,7 +2342,7 @@
         <v>120.47</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -2354,7 +2368,7 @@
         <v>136.87</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -2380,7 +2394,7 @@
         <v>436.86</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -2406,7 +2420,7 @@
         <v>372.09</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -2432,7 +2446,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -2458,7 +2472,7 @@
         <v>119.54</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -2484,7 +2498,7 @@
         <v>186.11</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -2510,7 +2524,7 @@
         <v>163.27000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -2536,7 +2550,7 @@
         <v>439.33</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -2562,7 +2576,7 @@
         <v>169.43</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1</v>
       </c>
@@ -2588,7 +2602,7 @@
         <v>168.98</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -2614,7 +2628,7 @@
         <v>352.05</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -2640,7 +2654,7 @@
         <v>210.59</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>1</v>
       </c>
@@ -2666,7 +2680,7 @@
         <v>776.98</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -2692,7 +2706,7 @@
         <v>124.73</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -2718,7 +2732,7 @@
         <v>183.17</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -2744,7 +2758,7 @@
         <v>113.65</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1</v>
       </c>
@@ -2770,7 +2784,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -2796,7 +2810,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1</v>
       </c>
@@ -2822,7 +2836,7 @@
         <v>405.3</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -2848,7 +2862,7 @@
         <v>354.52</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -2874,7 +2888,7 @@
         <v>194.94</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -2899,6 +2913,126 @@
       <c r="H76" s="5">
         <v>121</v>
       </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>-1.1622068754381362E-2</v>
+      </c>
+      <c r="B81" s="9">
+        <v>-1.2668484309654574E-3</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1.6610616169747966E-4</v>
+      </c>
+      <c r="D81" s="9">
+        <v>9.5023368013339854E-2</v>
+      </c>
+      <c r="E81" s="9">
+        <v>-3.1899069187471624E-2</v>
+      </c>
+      <c r="F81" s="9">
+        <v>1.0100036382870563E-2</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1.4868772129044002E-2</v>
+      </c>
+      <c r="H81" s="10">
+        <v>-3.6790034945454093E-4</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="10"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2907,53 +3041,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
